--- a/info/raspberry.xlsx
+++ b/info/raspberry.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thecy\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thecy\Documents\Android\Mobil_Beagyazott_Projekt\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -82,9 +82,6 @@
     <t>512Mb 400MHz SDRAM</t>
   </si>
   <si>
-    <t>PI B</t>
-  </si>
-  <si>
     <t>Broadcom BC2835
 ARMv6, 1 mag
 700MHz</t>
@@ -99,9 +96,6 @@
     <t>10/100Mbit RJ43</t>
   </si>
   <si>
-    <t>PI A</t>
-  </si>
-  <si>
     <t>256Mb 400MHz SDRAM</t>
   </si>
   <si>
@@ -109,9 +103,6 @@
   </si>
   <si>
     <t>nincs</t>
-  </si>
-  <si>
-    <t>PI A+</t>
   </si>
   <si>
     <t>SD</t>
@@ -159,6 +150,15 @@
   <si>
     <t>több csatornás HD Audio a HDMI felett
 Stereo a 3,5mm-es jack-nél</t>
+  </si>
+  <si>
+    <t>PI 1 A</t>
+  </si>
+  <si>
+    <t>PI 1 B</t>
+  </si>
+  <si>
+    <t>PI 1 A+</t>
   </si>
 </sst>
 </file>
@@ -305,45 +305,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -354,6 +321,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -636,9 +636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -649,13 +647,13 @@
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>9</v>
@@ -663,79 +661,79 @@
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="G1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
     </row>
     <row r="2" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="19" t="s">
+      <c r="B2" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
+      <c r="G2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8"/>
+      <c r="B3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
+        <v>37</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="D5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -743,129 +741,131 @@
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13" t="s">
+      <c r="B6" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="10" t="s">
+      <c r="B7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>25</v>
+      <c r="G7" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="10" t="s">
+      <c r="B8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="23" t="s">
-        <v>26</v>
+      <c r="G8" s="12" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13" t="s">
+      <c r="B9" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="17"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>37</v>
+        <v>26</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
+      <c r="B11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17"/>
+        <v>29</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="D6:G6"/>
     <mergeCell ref="B11:G11"/>
@@ -873,8 +873,6 @@
     <mergeCell ref="D9:G9"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="258" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
